--- a/Excel/UTrapConfig.xlsx
+++ b/Excel/UTrapConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E89C9-EA35-4EC7-BD17-4069F337FFE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C35409-1F9A-4B3E-84DA-5D7981898AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>出生点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -147,6 +143,10 @@
   </si>
   <si>
     <t>{'skills':[2001,2002,2003]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap_Tower_Demo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -538,7 +538,9 @@
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.875" style="2" customWidth="1"/>
@@ -548,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -588,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -621,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -662,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -697,25 +699,25 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
@@ -732,25 +734,25 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>

--- a/Excel/UTrapConfig.xlsx
+++ b/Excel/UTrapConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C35409-1F9A-4B3E-84DA-5D7981898AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE97775-105C-4B0C-A12D-9374214634CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -541,7 +541,7 @@
     <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.125" style="2" customWidth="1"/>
